--- a/finetuning/it_datasets/qa_dataset/qa_it_el kef_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_el kef_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,50 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great place to relax and enjoy a cup of coffee, check out Cafe ALA EDDINE. This top-rated destination is located at Cafe ALA EDDINE, El Kef and is perfect for coffee lovers. With a rating of 4.2, it's a must-visit spot for anyone looking for a great cafe. It's open 24 hours a day, so you can stop by anytime for a caffeine fix. To get there, you can use these GPS coordinates: (32.75041, -86.75026). For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+ALA+EDDINE/data=!4m7!3m6!1s0x12fba504754bae75:0xda848fa89dabfaa!8m2!3d36.1565625!4d8.6980625!16s%2Fg%2F11cnwqs1lr!19sChIJda5LdQSl-xIRqr_aifpIqA0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 776 767.</t>
+          <t>**Cafe ALA EDDINE** is a cafe located in el kef, Tunisia with a rating of 4.2 out of 5 based on 9 reviews. It offers a wide range of food and drinks, and is open 24 hours a day. The cafe is also known for its friendly staff and relaxed atmosphere.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in El Kef can you find Cafe ALA EDDINE, a highly-rated coffee destination open 24 hours a day?</t>
+          <t>**Day Plan:**
+**Morning:** Explore El Kasba, shedding light on the region's rich history and culture.
+**Mid-Morning:** Indulge in traditional Tunisian cuisine at Le Petit Bateau, savoring authentic flavors and immersing yourself in the local culinary scene.
+**Midday:** Immerse yourself in nature at a picturesque park, enjoying recreational activities such as picnicking or birdwatching amidst serene surroundings.
+**Afternoon:** Discover the renowned La Una pizzeria, treating your taste buds to delectable pizzas while admiring the vibrant street views of El Kef.
+**Evening:** Venture to Cafe ALA EDDINE, a highly rated 24-hour cafe, and unwind with a refreshing beverage or a light snack, engaging in lively conversations with locals.
+**Night:** Experience the vibrant ambiance of El Kef by exploring its bustling markets or malls, where you can delve into local crafts, souvenirs, and delicacies.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ALA EDDINE is a highly rated cafe located in El Kef, Tunisia. Open 24 hours a day, it has garnered positive reviews for its offerings. The cafe's exact location is at (32.75041, -86.75026).
+Le Petit Bateau is a restaurant located in El Kef, Tunisia. It offers a variety of traditional Tunisian dishes, as well as some international cuisine. The restaurant is located at 5PH9+XJV, Le Petit Bateau, El Kef and is open from 11:00am to 9:30pm, seven days a week.
+Residence Venus is a 4.4-rated hotel, located in El Kef, Tunisia. It offers 12 reviews, with "prix" or 'cost' as a commonly mentioned keyword in them.
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -778,12 +821,53 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a delicious meal, check out Le Petit Bateau located at 5PH9+XJV Le Petit Bateau, El Kef. This top-rated restaurant is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-21:30. To get there, use these GPS coordinates: 33.5941716, -7.6109608. For more details, visit their website at https://www.google.com/maps/place/Le+Petit+Bateau/data=!4m7!3m6!1s0x12fba446e850805b:0x877124d4d250a78b!8m2!3d36.1799813!4d8.7190371!16s%2Fg%2F11cp77z79f!19sChIJW4BQ6Eak-xIRi6dQ0tQkcYc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 743 379.</t>
+          <t>Le Petit Bateau is a restaurant located in El Kef, Tunisia. It offers a variety of traditional Tunisian dishes, as well as some international cuisine. The restaurant is located at 5PH9+XJV, Le Petit Bateau, El Kef and is open from 11:00am to 9:30pm, seven days a week.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated restaurant in El Kef that offers a variety of cuisine options and boasts a stellar rating of 4.5?</t>
+          <t>Day Plan:
+Morning: Explore El Kasba, a museum offering insights into the city's history and culture.
+Mid-Morning: Indulge in local cuisine at Restaurant LEKLIL Fawzi, known for its delicious dishes and high ratings.
+Midday: Visit Café Frigua, a popular spot known for its cozy ambience and refreshing beverages.
+Afternoon: Relax at Residence Venus, a well-rated hotel with comfortable accommodations.
+Evening: Enjoy the delectable pizzas at La Una, a reputable pizzeria serving mouthwatering dishes.
+Night: Take a guided tour of the local archaeological site, offering an in-depth understanding of the region's past.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Frigua is a popular spot in El Kef, Tunisia, known for its cozy atmosphere and refreshing beverages. Located at 5PJF+HH6, it's a great place to relax and enjoy a cup of coffee or tea. The cafe is open from 6:00 am to 1:00 am daily, making it convenient for both early risers and late-night enthusiasts.
+Restaurant LEKLIL Fawzi is located in El Kef, Tunisia, at the bus station. It is highly rated with 4.7 stars out of 5, based on 3 reviews. The restaurant is open from 8 AM to 7 PM and offers a variety of dishes. You can find the restaurant on Google Maps using the following link: https://goo.gl/maps/Yf6Fb6m1A9x92V2W9.
+"Residence Venus," located in El Kef (Tunisia), is a 4.4-rated hotel offering accommodations. Visitors can easily access the establishment via the provided address or coordinates. With 12 reviews available, the hotel's prominent features include:
+- Hotel category with high ratings (4.4/5)
+- Convenient location in El Kef
+- Contact information (phone number) for inquiries
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -889,12 +973,50 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great cafe, check out Cafe Frigua located at 5PJF+HH6 Cafe Frigua, El Kef. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, call them at 36 363 232.</t>
+          <t>Café Frigua is a popular spot in El Kef, Tunisia, known for its cozy atmosphere and refreshing beverages. Located at 5PJF+HH6, it's a great place to relax and enjoy a cup of coffee or tea. The cafe is open from 6:00 am to 1:00 am daily, making it convenient for both early risers and late-night enthusiasts.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with ample category options and a 4.1 rating in El Kef?</t>
+          <t>Day Plan:
+Morning: Explore the historical El Kasba museum, showcasing local and regional culture.
+Mid-Morning: Indulge in the delectable pizzas at the highly-rated La Una pizzeria, renowned for its authentic flavors.
+Midday: Satisfy your taste buds with a culinary adventure at Dar Alyssa, a family-owned restaurant serving traditional Tunisian cuisine and international favorites.
+Afternoon: Relax and soak in the ambiance at Cafe Frigua, known for its cozy atmosphere and refreshing beverages.
+Evening: Take a leisurely stroll through El Kef, enjoying the scenic views and immersing yourself in the local culture.
+Night: Experience the vibrant atmosphere of Residence Venus, a highly-rated hotel offering a comfortable stay and amenities to unwind and rejuvenate.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Frigua, located in El Kef (Tunisia), is a popular cafe offering a cozy and inviting atmosphere. With a 4.1-star rating based on 27 reviews, it is a great spot to relax and enjoy a cup of coffee or tea. Cafe Frigua offers a range of beverages and snacks to satisfy your cravings. Situated at the coordinates 36.1697539, 8.7044707, it is easily accessible and welcomes customers from 6 am to 1 am daily.
+Dar Alyssa is a family-owned restaurant located in the heart of El Kef, Tunisia, at the coordinates (36.1697539, 8.7044707). It has been a local favorite for years and offers a wide variety of traditional Tunisian dishes as well as some international favorites. The restaurant is known for its delicious food, friendly service, and cozy atmosphere. Many customers rave about the restaurant delicious breakfasts and the comfortable rooms.
+With a 4.4-star rating based on 12 reviews, Residence Venus in El Kef, Tunisia, is a highly-rated hotel. It is located at 5PJ5+VWH, Rue de la source, and its main category is Hotel.
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1000,12 +1122,53 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out Cafe ALA EDDINE. This top-rated destination is perfect for cafe lovers. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 32.75041, -86.75026. For more details, visit their website or call them at 98 776 767.</t>
+          <t>Cafe ALA EDDINE is a highly rated cafe located in El Kef, Tunisia. Open 24 hours a day, it has garnered positive reviews for its offerings. The cafe's exact location is at (32.75041, -86.75026).</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in El Kef can you find Cafe ALA EDDINE, a popular destination with a 4.2 rating, perfect for cafe enthusiasts, and open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore the historic El Kasba museum to delve into the region's cultural heritage.
+Mid-Morning: Visit La Una pizzeria for a delightful lunch and savor the tantalizing flavors of local cuisine.
+Midday: Engage in some retail therapy at the bustling local markets or shopping malls, discovering unique crafts and souvenirs.
+Afternoon: Take a guided tour of the iconic Cafe java, known for its cozy ambiance and aromatic coffee creations.
+Evening: Indulge in a traditional Tunisian dinner at the family-owned Dar Alyssa restaurant, renowned for its authentic flavors and warm hospitality.
+Night: Relax with a peaceful stroll through Residence Venus's serene gardens, admiring the picturesque setting under the twinkling stars.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe java** is a cozy cafe located at 5P93+M9Q Cafe java, Av. Mongi Slim, El Kef. It offers a warm and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee. The cafe is open from 6:00 AM to 11:00 PM.
+Dar Alyssa is a family-owned restaurant located in the heart of El Kef, Tunisia, at the coordinates (36.1697539, 8.7044707). It has been a local favorite for years and offers a wide variety of traditional Tunisian dishes as well as some international favorites. The restaurant is known for its delicious food, friendly service, and cozy atmosphere. Many customers rave about the restaurant delicious breakfasts and the comfortable rooms.
+"Residence Venus," located in El Kef (Tunisia), is a 4.4-rated hotel offering accommodations. Visitors can easily access the establishment via the provided address or coordinates. With 12 reviews available, the hotel's prominent features include:
+- Hotel category with high ratings (4.4/5)
+- Convenient location in El Kef
+- Contact information (phone number) for inquiries
+El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1270,56 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a cup of coffee, check out Cafe Cesar located at 5M6X+RHM Cafe Cesar, El Kef. This top-rated destination is known for its coffee and offers a range of options to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, visit their website.</t>
+          <t>Café Cesar in El Kef, Tunisia, offers a welcoming atmosphere with its 4.1-star rating based on 8 reviews. Operating from 7:00 AM to 11:00 PM, Café Cesar serves as a great place to relax and enjoy a cup of coffee within its cafe ambiance. Situated at coordinates (36.1697539, 8.7044707), Café Cesar is a beloved spot for locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated coffee destination known for its coffee, located at 5M6X+RHM with GPS coordinates 36.1697539, 8.7044707 and营业时间07:00–23:00?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore El Kasba Museum for a glimpse into the local history and culture.
+**Mid-Morning:**
+* Take a guided tour of the archaeological site located near El Kasba.
+**Midday:**
+* Savour authentic Tunisian cuisine at Dar Alyssa, renowned for its delectable breakfast and charming atmosphere.
+**Afternoon:**
+* Embark on a shopping spree at the bustling local market, where you can find unique souvenirs and traditional handicrafts.
+**Evening:**
+* Indulge in a delightful pizza dinner at La Una, known for its exceptional pizzas and positive reviews.
+**Night:**
+* Sip on traditional mint tea and engage in conversations with locals at Cafe Java, a cozy spot perfect for relaxation and networking.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe java** is a cozy cafe located at 5P93+M9Q Cafe java, Av. Mongi Slim, El Kef. It offers a warm and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee. The cafe is open from 6:00 AM to 11:00 PM.
+Dar Alyssa is a restaurant located at 5PH4+XF9 Dar Alyssa, El Kef, Tunisia. It is particularly renowned for its breakfast and has received positive reviews for its comfortable rooms and family-friendly atmosphere. The restaurant is rated 4.4 out of 5 on Google, based on 56 reviews. Its exact coordinates are (36.1697539, 8.7044707).
+With a 4.4-star rating based on 12 reviews, Residence Venus in El Kef, Tunisia, is a highly-rated hotel. It is located at 5PJ5+VWH, Rue de la source, and its main category is Hotel.
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1214,12 +1421,53 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Calling all cafe lovers in el kef! Make your way to Chez Mouldi, located at 5PC4+26J Chez Mouldi, Rte Harrouch. This top-rated spot with a near perfect 5.0 rating is open daily from 05:00-22:00. For more information, visit their website or use these GPS coordinates to get there: (36.1697539, 8.7044707).</t>
+          <t>Chez Mouldi, a cafe located in the heart of El Kef, offers a warm and inviting atmosphere to enjoy a delicious cup of coffee or tea. Open from 5 am to 10 pm, it is the perfect spot to start your day or relax in the evening. With a 5-star rating and positive reviews, Chez Mouldi is a must-visit for anyone looking for a great cafe experience in El Kef.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café in El Kef, open from 5 AM to 10 PM and accessible via specific GPS coordinates?</t>
+          <t>Day Plan:
+**Morning:** Exploring El Kasba, a museum showcasing the region's rich history and traditions.
+**Mid-Morning:** Trying local cuisine at Le Petit Bateau, a restaurant offering traditional Tunisian dishes and international fare.
+**Midday:** Visiting Residence Venus, a highly-rated 4.4-star hotel in the heart of El Kef.
+**Afternoon:** Enjoying a leisurely walk in the scenic La Una park, known for its stunning greenery and panoramic views.
+**Evening:** Shopping for local souvenirs and handicrafts at the vibrant El Kef market.
+**Night:** Experiencing the lively atmosphere at Cafe ALA EDDINE, a popular destination offering a wide variety of food and drinks in a relaxed setting.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ALA EDDINE, a cafe located in El Kef, Tunisia, is a popular destination for locals and tourists alike. Open 24 hours a day, it offers a wide variety of food and drinks, including traditional Tunisian dishes and international fare. The cafe is also known for its friendly staff and relaxed atmosphere, making it a great place to enjoy a meal or spend time with friends.
+Le Petit Bateau is a restaurant located in El Kef, Tunisia. It offers a variety of traditional Tunisian dishes, as well as some international cuisine. The restaurant is located at 5PH9+XJV, Le Petit Bateau, El Kef and is open from 11:00am to 9:30pm, seven days a week.
+"Residence Venus," located in El Kef (Tunisia), is a 4.4-rated hotel offering accommodations. Visitors can easily access the establishment via the provided address or coordinates. With 12 reviews available, the hotel's prominent features include:
+- Hotel category with high ratings (4.4/5)
+- Convenient location in El Kef
+- Contact information (phone number) for inquiries
+El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1569,50 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out Cafe java located at 5P93+M9Q Cafe java, Av. Mongi Slim. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.174411586475, 8.70682810871.</t>
+          <t>Discover "Cafe java", a highly-rated cafe located in El Kef (36.174411586475, 8.70682810871). This cozy establishment offers a delightful ambiance for your coffee and pastry cravings.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe in El Kef with exceptional Cafe options and a convenient location near Av. Mongi Slim?</t>
+          <t>Day Plan:
+Morning: Explore the historical El Kasba (museum) for an insightful glimpse into the region's past.
+Mid-Morning: Head to Residence Venus (hotel) for a comfortable stay and affordable accommodations.
+Midday: Indulge in a delightful lunch at Dar Alyssa (restaurant), renowned for its traditional Tunisian cuisine and cozy atmosphere.
+Afternoon: Immerse yourself in the local culture at Cafe ALA EDDINE (cafe), known for its friendly staff and relaxed ambiance. Sample a wide range of food and drinks while enjoying the vibrant atmosphere.
+Evening: Savor delectable pizzas at the highly rated La Una (pizzeria), offering mouthwatering dishes and a lively ambiance.
+Night: Wind down the day with a relaxing stay at Residence Venus (hotel), ensuring a tranquil and comfortable end to your day trip.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe ALA EDDINE** is a cafe located in el kef, Tunisia with a rating of 4.2 out of 5 based on 9 reviews. It offers a wide range of food and drinks, and is open 24 hours a day. The cafe is also known for its friendly staff and relaxed atmosphere.
+Dar Alyssa is a family-owned restaurant located in the heart of El Kef, Tunisia, at the coordinates (36.1697539, 8.7044707). It has been a local favorite for years and offers a wide variety of traditional Tunisian dishes as well as some international favorites. The restaurant is known for its delicious food, friendly service, and cozy atmosphere. Many customers rave about the restaurant delicious breakfasts and the comfortable rooms.
+**Residence Venus** is a highly rated (4.4 stars) hotel located in El Kef, Tunisia (36.180668136139, 8.710482817777). It offers comfortable accommodations at affordable prices, as suggested by the reviews that mention "prix" (price).
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1428,12 +1714,50 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in El Kef and looking for a great Cafe, check out La Rosa Cafe located at 5P82+422 La Rosa Cafe. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 30.7550394, -92.0073482. For more details, visit their link at https://www.google.com/maps/place/La+Rosa+Cafe/data=!4m7!3m6!1s0x12fba5aa47dbc89b:0xc4a3b076ff7ec6c1!8m2!3d36.1652721!4d8.7000269!16s%2Fg%2F11f3wcbs8b!19sChIJm8jbR6ql-xIRwcZ-_3awo8Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Rosa Cafe is a cafe located in El Kef, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and other snacks. The cafe is located at 30.7550394, -92.0073482.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where in El Kef can you find a top-rated Cafe with a perfect 5.0 rating, open from 6 am to midnight?</t>
+          <t>Day Plan:
+Morning: Explore El Kasba, a museum that offers a glimpse into the region's history and culture.
+Mid-Morning: Try local cuisine at Dar Alyssa, a renowned restaurant with a 4.4 rating and 56 customer reviews.
+Midday: Visit Cafe ALA EDDINE, a highly rated cafe open 24 hours a day, for a quick bite and some local flavor.
+Afternoon: Engage in outdoor activities like hiking or biking at Residence Venus, a 4.4-rated hotel with scenic views.
+Evening: Enjoy scenic views at La Una, a renowned pizzeria with a 4.5-star rating and delectable pizzas.
+Night: Relax with a traditional hammam experience at a local spa or hotel for a rejuvenating and authentic cultural immersion.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ALA EDDINE is a highly rated cafe located in El Kef, Tunisia. Open 24 hours a day, it has garnered positive reviews for its offerings. The cafe's exact location is at (32.75041, -86.75026).
+Dar Alyssa is a renowned restaurant located in El Kef, Tunisia. Boasting a rating of 4.4 out of 5 with 56 customer reviews, it is a popular destination for locals and tourists alike. The restaurant offers a variety of dining options, from cozy breakfasts to delightful meals for the entire family. Its prime location at 36.1697539 latitude and 8.7044707 longitude provides easy access for visitors. With its central location in the city, the restaurant is within walking distance of numerous attractions and accommodations.
+Residence Venus is a 4.4-rated hotel, located in El Kef, Tunisia. It offers 12 reviews, with "prix" or 'cost' as a commonly mentioned keyword in them.
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1535,14 +1859,50 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out Why not located at 5P54+7CJ Why not, P5, El Kef. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-01:30, but closed on . To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, visit their website at  or call them at .</t>
+          <t>Why not is a cafe located in el kef, Tunisia. It has a rating of 5.0 based on 1 review. It is open from 5:00am to 1:30am. The cafe is located at the coordinates (36.1697539, 8.7044707).</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in El Kef can I find a highly-rated cafe with a wide selection of options for those who love their caffeine fix?</t>
+          <t>Day Plan:
+Morning: Exploring El Kasba, the renowned museum with historical artifacts and cultural displays that provide insights into the region's rich history and traditions.
+Mid-Morning: Trying local cuisine at Dar Alyssa, a highly-rated restaurant with a 4.5-star rating and a pleasant ambiance.
+Midday: Relaxing with a cup of coffee or tea at Café Frigua, a cozy spot with a refreshing atmosphere.
+Afternoon: Taking a guided tour of Dar Alyssa, the historical residence of the city's founder, El Kef, and immersing in the cultural heritage of the region.
+Evening: Enjoying scenic views at the panoramic viewpoint of El Kef, capturing the breathtaking beauty of the surrounding landscape.
+Night: Experiencing a traditional Tunisian dinner at a local restaurant, savoring the authentic flavors and hospitality of the region.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Frigua is a popular spot in El Kef, Tunisia, known for its cozy atmosphere and refreshing beverages. Located at 5PJF+HH6, it's a great place to relax and enjoy a cup of coffee or tea. The cafe is open from 6:00 am to 1:00 am daily, making it convenient for both early risers and late-night enthusiasts.
+Dar Alyssa is a highly-rated restaurant located in Dar Alyssa, El Kef (36.1697539, 8.7044707). With 50 reviews and a 4.5-star rating, Dar Alyssa offers a pleasant dining experience with its cozy atmosphere. The restaurant serves breakfast and has a variety of dishes to choose from, making it a great place to start your day or enjoy a meal.
+Residence Venus is a 4.4-rated hotel, located in El Kef, Tunisia. It offers 12 reviews, with "prix" or 'cost' as a commonly mentioned keyword in them.
+El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1644,12 +2004,50 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great cafe, check out 3omda mola nasba located at Rue Taha Hussein, El Kef. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.94972468756, 8.825626583159. For more details, visit their website at  or call them at .</t>
+          <t>3omda mola nasba is a cafe located at 3omda mola nasba, Rue Taha Hussein in El Kef. Operating 24/7, this place is highly rated with a score of 5.0 based on 1 review. It features in the category of Cafe. Its coordinates are: (35.94972468756, 8.825626583159)</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where in El Kef can you find a highly-rated cafe with a 24-hour schedule, perfect for cafe enthusiasts offering a variety of cafe options?</t>
+          <t>Day Plan:
+Morning: Exploring El Kasba
+Mid-Morning: Trying local cuisine at Fast (mlfwf , shbty, crepes)
+Midday: Visiting Residence Venus for its affordable and comfortable accommodations
+Afternoon: Enjoying the cafe ambiance and relaxing with a cup of coffee at Café Cesar
+Evening: Savoring delectable pizzas at the highly-rated pizzeria, La Una
+Night: Experiencing cultural immersion at the El Kef National Museum</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Cesar in El Kef, Tunisia, offers a welcoming atmosphere with its 4.1-star rating based on 8 reviews. Operating from 7:00 AM to 11:00 PM, Café Cesar serves as a great place to relax and enjoy a cup of coffee within its cafe ambiance. Situated at coordinates (36.1697539, 8.7044707), Café Cesar is a beloved spot for locals and visitors alike.
+Fast (mlfwf , shbty, crepes) is a restaurant located in El Kef, at 36.1697539 latitude and 8.7044707 longitude. The restaurant is open 24 hours a day and is popular for its delicious crepes. It has a rating of 4.8 out of 10 based on 10 reviews, and also features a website and a phone number for reservations and inquiries.
+**Residence Venus** is a highly rated (4.4 stars) hotel located in El Kef, Tunisia (36.180668136139, 8.710482817777). It offers comfortable accommodations at affordable prices, as suggested by the reviews that mention "prix" (price).
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1755,12 +2153,50 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great cafe, check out Cafe ALA EDDINE located at El Kef. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, so you can enjoy it anytime. To get there, use these GPS coordinates: 32.75041, -86.75026. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+ALA+EDDINE/data=!4m7!3m6!1s0x12fba504754bae75:0xda848fa89dabfaa!8m2!3d36.1565625!4d8.6980625!16s%2Fg%2F11cnwqs1lr!19sChIJda5LdQSl-xIRqr_aifpIqA0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 776 767.</t>
+          <t>Cafe ALA EDDINE, a cafe located in El Kef, Tunisia, is a popular destination for locals and tourists alike. Open 24 hours a day, it offers a wide variety of food and drinks, including traditional Tunisian dishes and international fare. The cafe is also known for its friendly staff and relaxed atmosphere, making it a great place to enjoy a meal or spend time with friends.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in El Kef that offers a range of categories and stays open 24/7?</t>
+          <t>Day Plan:
+Morning: Exploring El Kasba museum
+Mid-Morning: Trying local cuisine at Le Petit Bateau restaurant
+Midday: Visiting Residence Venus hotel
+Afternoon: Relaxing with a coffee at La Rosa Cafe
+Evening: Participating in a guided tour of the local archaeological site.
+Night: Enjoying scenic views at Av. Taieb Mhiri.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Rosa Cafe is a cafe located in El Kef, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and other snacks. The cafe is located at 30.7550394, -92.0073482.
+Le Petit Bateau is a restaurant located in El Kef, Tunisia. It offers a variety of traditional Tunisian dishes, as well as some international cuisine. The restaurant is located at 5PH9+XJV, Le Petit Bateau, El Kef and is open from 11:00am to 9:30pm, seven days a week.
+Residence Venus is a 4.4-rated hotel, located in El Kef, Tunisia. It offers 12 reviews, with "prix" or 'cost' as a commonly mentioned keyword in them.
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1862,12 +2298,50 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out Residence Venus located at 5PJ5+VWH Residence Venus, Rue de la source. This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.180668136139, 8.710482817777. For more details, visit their website or call them at 78 204 695.</t>
+          <t>**Residence Venus** is a highly rated (4.4 stars) hotel located in El Kef, Tunisia (36.180668136139, 8.710482817777). It offers comfortable accommodations at affordable prices, as suggested by the reviews that mention "prix" (price).</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where in El Kef can you find a highly rated, top-rated hotel that offers a range of categories to choose from?</t>
+          <t>Day Plan:
+Morning: Explore the historical El Kasba museum to gain insights into the region's past.
+Mid-Morning: Visit the nearby Cafe ALA EDDINE for a traditional Tunisian breakfast and enjoy the local atmosphere.
+Midday: Try the local cuisine at Dar Alyssa, a well-renowned family-owned restaurant serving authentic dishes.
+Afternoon: Relax at Residence Venus hotel with a comfortable stay and friendly service.
+Evening: Experience the culinary delights of La Una pizzeria, known for its exceptional pizzas.
+Night: Take a guided tour of the El Kef medina to immerse in the city's vibrant cultural heritage.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ALA EDDINE, a cafe located in El Kef, Tunisia, is a popular destination for locals and tourists alike. Open 24 hours a day, it offers a wide variety of food and drinks, including traditional Tunisian dishes and international fare. The cafe is also known for its friendly staff and relaxed atmosphere, making it a great place to enjoy a meal or spend time with friends.
+Dar Alyssa is a family-owned restaurant located in the heart of El Kef, Tunisia, at the coordinates (36.1697539, 8.7044707). It has been a local favorite for years and offers a wide variety of traditional Tunisian dishes as well as some international favorites. The restaurant is known for its delicious food, friendly service, and cozy atmosphere. Many customers rave about the restaurant delicious breakfasts and the comfortable rooms.
+Residence Venus is a 4.4-rated hotel, located in El Kef, Tunisia. It offers 12 reviews, with "prix" or 'cost' as a commonly mentioned keyword in them.
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1969,12 +2443,50 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a delicious meal, check out Dar Alyssa located at 5PH4+XF9 Dar Alyssa, El Kef. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, visit their website or call them at 97 926 051.</t>
+          <t>Dar Alyssa is a renowned restaurant located in El Kef, Tunisia. Boasting a rating of 4.4 out of 5 with 56 customer reviews, it is a popular destination for locals and tourists alike. The restaurant offers a variety of dining options, from cozy breakfasts to delightful meals for the entire family. Its prime location at 36.1697539 latitude and 8.7044707 longitude provides easy access for visitors. With its central location in the city, the restaurant is within walking distance of numerous attractions and accommodations.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where in El Kef can you indulge in a highly-rated culinary experience at a renowned restaurant with a wide selection of dishes?</t>
+          <t>Day Plan:
+Morning: Explore the historical El Kasba museum to delve into the region's rich heritage.
+Mid-Morning: Visit La Una pizzeria and savor their highly-rated pizzas while enjoying the lively ambiance.
+Midday: Take a guided tour of Residence Venus to appreciate its 4.4-star-rated hospitality and comfortable accommodations.
+Afternoon: Immerse yourself in the local cuisine by trying traditional Tunisian dishes at Cafe ALA EDDINE, known for its friendly staff and diverse menu.
+Evening: Experience cultural immersion at Dar Alyssa, renowned for its delightful breakfast, family-friendly atmosphere, and positive reviews.
+Night: Relax and unwind at the spa at Residence Venus, indulging in a rejuvenating experience to end the day on a pampering note.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ALA EDDINE, a cafe located in El Kef, Tunisia, is a popular destination for locals and tourists alike. Open 24 hours a day, it offers a wide variety of food and drinks, including traditional Tunisian dishes and international fare. The cafe is also known for its friendly staff and relaxed atmosphere, making it a great place to enjoy a meal or spend time with friends.
+Dar Alyssa is a restaurant located at 5PH4+XF9 Dar Alyssa, El Kef, Tunisia. It is particularly renowned for its breakfast and has received positive reviews for its comfortable rooms and family-friendly atmosphere. The restaurant is rated 4.4 out of 5 on Google, based on 56 reviews. Its exact coordinates are (36.1697539, 8.7044707).
+With a 4.4-star rating based on 12 reviews, Residence Venus in El Kef, Tunisia, is a highly-rated hotel. It is located at 5PJ5+VWH, Rue de la source, and its main category is Hotel.
+El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2076,12 +2588,50 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you find yourself in el kef and are looking for an excellent restaurant, Dar Alyssa is the place to go. Located at 5PH4+XF9 Dar Alyssa, Dar Alyssa has a 4.4-star rating and is a must-visit spot for food enthusiasts. It offers a range of categories to choose from, including Restaurant. To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, visit their website at https://www.google.com/maps/place/Dar+Alyssa/data=!4m10!3m9!1s0x12fba44b71be2c8f:0xf06020c61d559764!5m2!4m1!1i2!8m2!3d36.1799104!4d8.7062362!16s%2Fg%2F11c0tb3bss!19sChIJjyy-cUuk-xIRZJdVHcYgYPA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 926 051.</t>
+          <t>Dar Alyssa is a restaurant located at 5PH4+XF9 Dar Alyssa, El Kef, Tunisia. It is particularly renowned for its breakfast and has received positive reviews for its comfortable rooms and family-friendly atmosphere. The restaurant is rated 4.4 out of 5 on Google, based on 56 reviews. Its exact coordinates are (36.1697539, 8.7044707).</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Which highly-rated restaurant in El Kef, known for its exceptional cuisine, is located at 5PH4+XF9?</t>
+          <t>Day Plan:
+Morning: Explore El Kasba, a renowned museum showcasing the rich history and traditions of El Kef.
+Mid-Morning: Try local cuisine at Restaurant LEKLIL Fawzi, known for its delicious dishes and warm atmosphere.
+Midday: Relax by enjoying scenic views at the nearby park or take a guided tour of the museum to delve deeper into the region's culture.
+Afternoon: Visit La Una, a renowned pizzeria with an impressive rating and delectable pizzas that have garnered much appreciation.
+Evening: Experience cultural immersion at El Kef's traditional markets, where you can browse local crafts and souvenirs while immersing yourself in the local atmosphere.
+Night: Enjoy a leisurely stroll through the charming streets of El Kef, taking in the sights and sounds of the city's vibrant nightlife.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover "Cafe java", a highly-rated cafe located in El Kef (36.174411586475, 8.70682810871). This cozy establishment offers a delightful ambiance for your coffee and pastry cravings.
+Restaurant LEKLIL Fawzi is located in El Kef, Tunisia, at the bus station. It is highly rated with 4.7 stars out of 5, based on 3 reviews. The restaurant is open from 8 AM to 7 PM and offers a variety of dishes. You can find the restaurant on Google Maps using the following link: https://goo.gl/maps/Yf6Fb6m1A9x92V2W9.
+Residence Venus is a 4.4-rated hotel, located in El Kef, Tunisia. It offers 12 reviews, with "prix" or 'cost' as a commonly mentioned keyword in them.
+El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2183,12 +2733,50 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a comfortable stay, check out Residence Venus located at 5PJ5+VWH Rue de la source, El Kef. This top-rated hotel offers a cozy ambiance and is perfect for relaxation. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.180668136139, 8.710482817777. For more details, visit their website at https://www.google.com/maps/place/R%C3%A9sidence+V%C3%A9nus/data=!4m10!3m9!1s0x12fba522c0fac3d3:0xb8d0e1af56624ae8!5m2!4m1!1i2!8m2!3d36.1821974!4d8.7098633!16s%2Fg%2F11h2j6mhb2!19sChIJ08P6wCKl-xIR6EpiVq_h0Lg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 78 204 695.</t>
+          <t>The Residence Venus is a 4.4-rated hotel located in el kef. Situated at 5PJ5+VWH Residence Venus, Rue de la source, this hotel offers a range of amenities to its guests. With its convenient location and commitment to providing a comfortable stay, the Residence Venus is an ideal choice for travelers seeking a restful and enjoyable experience.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>What highly rated hotel offers a cozy ambiance for relaxation in El Kef, at the convenient location of 5PJ5+VWH Rue de la source?</t>
+          <t>Day Plan:
+Morning: Explore El Kasba, a fascinating museum offering historical and cultural insights into the region.
+Mid-Morning: Visit Dar Alyssa for a hearty and authentic Tunisian breakfast, savoring the flavors of traditional dishes.
+Midday: Take a guided tour of the ancient archaeological site in El Kef, delving into the rich history of the area.
+Afternoon: Indulge in a delicious lunch of delectable pizzas at the highly-rated La Una, known for its exceptional culinary creations.
+Evening: Stroll through the vibrant streets of El Kef, experiencing the local culture and soaking up the atmosphere of this charming city.
+Night: Enjoy a relaxing stay at the comfortable rooms of Residence Venus, a highly-rated hotel with a cozy and inviting ambiance to end the perfect day in El Kef.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover "Cafe java", a highly-rated cafe located in El Kef (36.174411586475, 8.70682810871). This cozy establishment offers a delightful ambiance for your coffee and pastry cravings.
+Dar Alyssa is a family-owned restaurant located in the heart of El Kef, Tunisia, at the coordinates (36.1697539, 8.7044707). It has been a local favorite for years and offers a wide variety of traditional Tunisian dishes as well as some international favorites. The restaurant is known for its delicious food, friendly service, and cozy atmosphere. Many customers rave about the restaurant delicious breakfasts and the comfortable rooms.
+With a 4.4-star rating based on 12 reviews, Residence Venus in El Kef, Tunisia, is a highly-rated hotel. It is located at 5PJ5+VWH, Rue de la source, and its main category is Hotel.
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2290,14 +2878,50 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a comfortable stay, check out Residence Venus located at 5PJ5+VWH Residence Venus, Rue de la source, El Kef. 
-This highly-rated hotel is perfect for those seeking accommodation and offers a range of amenities to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.180668136139, 8.710482817777. For more details, visit their website at https://www.google.com/maps/place/R%C3%A9sidence+V%C3%A9nus/data=!4m10!3m9!1s0x12fba522c0fac3d3:0xb8d0e1af56624ae8!5m2!4m1!1i2!8m2!3d36.1821974!4d8.7098633!16s%2Fg%2F11h2j6mhb2!19sChIJ08P6wCKl-xIR6EpiVq_h0Lg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 78 204 695.</t>
+          <t>Residence Venus is a 4.4-rated hotel, located in El Kef, Tunisia. It offers 12 reviews, with "prix" or 'cost' as a commonly mentioned keyword in them.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hotel with amenities and a 4.4 rating in El Kef, Tunisia?</t>
+          <t>Day Plan:
+Morning: **Exploring El Kasba (Museum)**
+Mid-Morning: **Walking tour of the city**
+Midday: **Trying local cuisine at Restaurant LEKLIL Fawzi**
+Afternoon: **Enjoying scenic views at the ruins of the Roman city**
+Evening: **Visiting La Una (Pizzeria)**
+Night: **Relaxing with a traditional mint tea at Residence Venus (Hotel)**</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover "Cafe java", a highly-rated cafe located in El Kef (36.174411586475, 8.70682810871). This cozy establishment offers a delightful ambiance for your coffee and pastry cravings.
+Restaurant LEKLIL Fawzi is located in El Kef, Tunisia, at the bus station. It is highly rated with 4.7 stars out of 5, based on 3 reviews. The restaurant is open from 8 AM to 7 PM and offers a variety of dishes. You can find the restaurant on Google Maps using the following link: https://goo.gl/maps/Yf6Fb6m1A9x92V2W9.
+Residence Venus is a 4.4-rated hotel, located in El Kef, Tunisia. It offers 12 reviews, with "prix" or 'cost' as a commonly mentioned keyword in them.
+El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2399,12 +3023,54 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great hotel to stay at, check out Residence Venus located at 5PJ5+VWH Residence Venus, Rue de la source, El Kef. This top-rated hotel is perfect for hotel lovers and has a rating of 4.4. The hotel offers a range of categories to choose from, including hotel. To get there, use these GPS coordinates: 36.180668136139, 8.710482817777.</t>
+          <t>The Residence Venus is a 4.4-rated hotel (out of 5) located at the address 5PJ5+VWH Residence Venus, Rue de la source, El Kef. It offers a convenient location for travelers and has received positive reviews for its value for money. The hotel has 12 reviews, with customers praising its cleanliness and friendly staff.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>What highly-rated hotel with excellent ratings and a wide range of categories can be found in El Kef, conveniently located with GPS coordinates for easy navigation?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore El Kasba, a museum showcasing the cultural heritage of El Kef
+**Mid-Morning:**
+- Take a guided tour of the Residence Venus, a well-rated hotel known for its value for money
+**Midday:**
+- Savor local cuisine at Dar Alyssa, a restaurant offering a cozy atmosphere and a variety of breakfast dishes
+**Afternoon:**
+- Relish delicious pizzas at La Una, a renowned pizzeria known for its exquisite flavors
+**Evening:**
+- Indulge in a relaxing evening at Cafe ALA EDDINE, known for its friendly staff and 24-hour availability</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe ALA EDDINE** is a cafe located in el kef, Tunisia with a rating of 4.2 out of 5 based on 9 reviews. It offers a wide range of food and drinks, and is open 24 hours a day. The cafe is also known for its friendly staff and relaxed atmosphere.
+Dar Alyssa is a highly-rated restaurant located in Dar Alyssa, El Kef (36.1697539, 8.7044707). With 50 reviews and a 4.5-star rating, Dar Alyssa offers a pleasant dining experience with its cozy atmosphere. The restaurant serves breakfast and has a variety of dishes to choose from, making it a great place to start your day or enjoy a meal.
+The Residence Venus is a 4.4-rated hotel (out of 5) located at the address 5PJ5+VWH Residence Venus, Rue de la source, El Kef. It offers a convenient location for travelers and has received positive reviews for its value for money. The hotel has 12 reviews, with customers praising its cleanliness and friendly staff.
+El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2506,14 +3172,50 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great place to stay, check out Residence Venus located at 5PJ5+VWH Residence Venus, Rue de la source, El Kef. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.180668136139, 8.710482817777. For more details, visit their website or call them at 78 204 695.</t>
+          <t>With a 4.4-star rating based on 12 reviews, Residence Venus in El Kef, Tunisia, is a highly-rated hotel. It is located at 5PJ5+VWH, Rue de la source, and its main category is Hotel.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where in El Kef can you find a highly rated (4.4) accommodation destination offering a variety of hotels for Hotel enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring El Kasba, a renowned museum offering insights into the region's history and heritage.
+Mid-Morning: Trying local cuisine at La Rosa Cafe, highly-rated for its exquisite coffee and culinary delights.
+Midday: Visiting The Residence Venus, a well-reviewed hotel with a convenient location and positive feedback for its value and friendly staff.
+Afternoon: Enjoying delectable pizzas at La Una, a renowned pizzeria conveniently situated in the city center.
+Evening: Engaging in outdoor activities like hiking or biking at a scenic nearby spot.
+Night: Relaxing with a comfortable stay at The Residence Venus, enjoying the hotel's amenities and unwinding after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Rosa Cafe, a highly-rated cafe in el kef, offers a cozy ambiance for patrons to enjoy their exquisite coffee and culinary delights. Located at 5P82+422 (36.1652721, 8.7000269), the cafe is open daily from 6 AM to midnight, welcoming customers with its inviting aroma and warm atmosphere.
+Restaurant LEKLIL Fawzi is located in El Kef, Tunisia, at the bus station. It is highly rated with 4.7 stars out of 5, based on 3 reviews. The restaurant is open from 8 AM to 7 PM and offers a variety of dishes. You can find the restaurant on Google Maps using the following link: https://goo.gl/maps/Yf6Fb6m1A9x92V2W9.
+The Residence Venus is a 4.4-rated hotel (out of 5) located at the address 5PJ5+VWH Residence Venus, Rue de la source, El Kef. It offers a convenient location for travelers and has received positive reviews for its value for money. The hotel has 12 reviews, with customers praising its cleanliness and friendly staff.
+El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2615,12 +3317,50 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Dar Alyssa is a popular restaurant located at 5PH4+XF9 Dar Alyssa, El Kef. With a 4.4 rating based on 56 reviews, it's a must-visit spot for food enthusiasts. Dar Alyssa offers a memorable dining experience and is highly recommended for families. For more details, contact them at 97 926 051.</t>
+          <t>Dar Alyssa is a family-owned restaurant located in the heart of El Kef, Tunisia, at the coordinates (36.1697539, 8.7044707). It has been a local favorite for years and offers a wide variety of traditional Tunisian dishes as well as some international favorites. The restaurant is known for its delicious food, friendly service, and cozy atmosphere. Many customers rave about the restaurant delicious breakfasts and the comfortable rooms.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with rave reviews, ideal for a memorable family dining experience?</t>
+          <t>Day Plan:
+Morning: Exploring El Kef (visit El Kasba to learn about local history and culture)
+Mid-Morning: Trying local cuisine at Dar Alyssa (enjoy a delightful breakfast or meal with the family)
+Midday: Visiting La Una (savor delectable pizzas at this renowned pizzeria)
+Afternoon: Exploring Cafe Frigua (relax and enjoy a cup of coffee or tea in a cozy atmosphere)
+Evening: Experiencing cultural immersion at Residence Venus (take a guided tour of this historic hotel and learn about the local lifestyle)
+Night: Enjoying scenic views at Av. Taieb Mhiri (stroll along this avenue and admire the beautiful surroundings)</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Frigua, located in El Kef (Tunisia), is a popular cafe offering a cozy and inviting atmosphere. With a 4.1-star rating based on 27 reviews, it is a great spot to relax and enjoy a cup of coffee or tea. Cafe Frigua offers a range of beverages and snacks to satisfy your cravings. Situated at the coordinates 36.1697539, 8.7044707, it is easily accessible and welcomes customers from 6 am to 1 am daily.
+Dar Alyssa is a renowned restaurant located in El Kef, Tunisia. Boasting a rating of 4.4 out of 5 with 56 customer reviews, it is a popular destination for locals and tourists alike. The restaurant offers a variety of dining options, from cozy breakfasts to delightful meals for the entire family. Its prime location at 36.1697539 latitude and 8.7044707 longitude provides easy access for visitors. With its central location in the city, the restaurant is within walking distance of numerous attractions and accommodations.
+The Residence Venus is a 4.4-rated hotel located in el kef. Situated at 5PJ5+VWH Residence Venus, Rue de la source, this hotel offers a range of amenities to its guests. With its convenient location and commitment to providing a comfortable stay, the Residence Venus is an ideal choice for travelers seeking a restful and enjoyable experience.
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2722,12 +3462,53 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great hotel, check out Residence Venus located at 5PJ5+VWH Residence Venus, Rue de la source. This top-rated destination is perfect for hotel lovers and offers a range of options to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.180668136139, 8.710482817777. For more details, visit their website at or call them at 78 204 695.</t>
+          <t>"Residence Venus," located in El Kef (Tunisia), is a 4.4-rated hotel offering accommodations. Visitors can easily access the establishment via the provided address or coordinates. With 12 reviews available, the hotel's prominent features include:
+- Hotel category with high ratings (4.4/5)
+- Convenient location in El Kef
+- Contact information (phone number) for inquiries</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where is the highly rated Residence Venus hotel with a 4.4 rating located in el kef, and what makes it special?</t>
+          <t>Day Plan:
+Morning: Exploring El Kasba, a renowned museum showcasing the rich history and traditions of El Kef.
+Mid-Morning: Trying local cuisine at Dar Alyssa, a restaurant particularly renowned for its breakfast, known for its comfortable rooms and family-friendly atmosphere.
+Midday: Enjoying a guided tour of Residence Venus, a highly-rated hotel that offers a glimpse into the architectural heritage of El Kef.
+Afternoon: Engaging in outdoor activities like hiking or biking at a nearby park or scenic trail to experience the natural beauty of the region.
+Evening: Experiencing cultural immersion at La Una, a renowned pizzeria that serves delectable pizzas and provides a lively ambiance to unwind and socialize.
+Night: Relaxing with a traditional hammam experience at a local spa or hotel, offering a rejuvenating and authentic way to end the day.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Why not is a cafe located in el kef, Tunisia. It has a rating of 5.0 based on 1 review. It is open from 5:00am to 1:30am. The cafe is located at the coordinates (36.1697539, 8.7044707).
+Dar Alyssa is a restaurant located at 5PH4+XF9 Dar Alyssa, El Kef, Tunisia. It is particularly renowned for its breakfast and has received positive reviews for its comfortable rooms and family-friendly atmosphere. The restaurant is rated 4.4 out of 5 on Google, based on 56 reviews. Its exact coordinates are (36.1697539, 8.7044707).
+With a 4.4-star rating based on 12 reviews, Residence Venus in El Kef, Tunisia, is a highly-rated hotel. It is located at 5PJ5+VWH, Rue de la source, and its main category is Hotel.
+El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2825,12 +3606,50 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out El kasba, located at El kasba, 13 Rue Kheireddine. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.180510116134, 8.711688656034.</t>
+          <t>El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination in El Kef that is perfect for art enthusiasts, offering a diverse selection of museums to explore?</t>
+          <t>Day Plan:
+Morning: Exploring El Kasba, renowned museum showcasing the region's rich history and heritage.
+Mid-Morning: Trying local cuisine at Dar Alyssa, a family-owned restaurant serving traditional Tunisian dishes and international favorites.
+Midday: Visiting Residence Venus, a 4.4-rated hotel offering comfortable rooms and a relaxing atmosphere.
+Afternoon: Participating in outdoor activities like hiking or biking at a nearby park or outdoor location.
+Evening: Enjoying scenic views at a scenic spot overlooking the city, offering panoramic vistas.
+Night: Experiencing a traditional Tunisian dinner at Cafe ALA EDDINE, a popular 24-hour cafe offering a wide variety of food and drinks.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ALA EDDINE, a cafe located in El Kef, Tunisia, is a popular destination for locals and tourists alike. Open 24 hours a day, it offers a wide variety of food and drinks, including traditional Tunisian dishes and international fare. The cafe is also known for its friendly staff and relaxed atmosphere, making it a great place to enjoy a meal or spend time with friends.
+Dar Alyssa is a family-owned restaurant located in the heart of El Kef, Tunisia, at the coordinates (36.1697539, 8.7044707). It has been a local favorite for years and offers a wide variety of traditional Tunisian dishes as well as some international favorites. The restaurant is known for its delicious food, friendly service, and cozy atmosphere. Many customers rave about the restaurant delicious breakfasts and the comfortable rooms.
+Residence Venus is a 4.4-rated hotel, located in El Kef, Tunisia. It offers 12 reviews, with "prix" or 'cost' as a commonly mentioned keyword in them.
+El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2928,12 +3747,50 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out El kasba located at 13 Rue Kheireddine. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.180510116134, 8.711688656034. For more details, visit their website at https://www.google.com/maps/place/El+kasba/data=!4m7!3m6!1s0x12fba57fd700fab9:0x9981407683904add!8m2!3d36.1810523!4d8.7130112!16s%2Fg%2F11q23v4hrq!19sChIJufoA13-l-xIR3UqQg3ZAgZk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>For Musee enthusiasts visiting El Kef, which top-rated destination with a rating of 4.7 boasts a variety of Musee to explore?</t>
+          <t>Day Plan:
+Morning: Exploring El Kasba, a museum offering insights into the region's history and culture.
+Mid-Morning: Trying local cuisine at Le Petit Bateau, a restaurant famous for its traditional Tunisian dishes.
+Midday: Relaxing with a refreshing cup of coffee or tea at Café Frigua, a popular spot known for its cozy atmosphere.
+Afternoon: Shopping for souvenirs and local products at the bustling market in El Kef.
+Evening: Experiencing cultural immersion at the Sidi Bou Makhlouf Mosque, a beautiful example of Tunisian architecture.
+Night: Enjoying a delicious pizza at La Una, a renowned pizzeria highly rated for its delectable pizzas and inviting ambiance.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Frigua is a popular spot in El Kef, Tunisia, known for its cozy atmosphere and refreshing beverages. Located at 5PJF+HH6, it's a great place to relax and enjoy a cup of coffee or tea. The cafe is open from 6:00 am to 1:00 am daily, making it convenient for both early risers and late-night enthusiasts.
+Le Petit Bateau is a restaurant located in El Kef, Tunisia. It offers a variety of traditional Tunisian dishes, as well as some international cuisine. The restaurant is located at 5PH9+XJV, Le Petit Bateau, El Kef and is open from 11:00am to 9:30pm, seven days a week.
+With a 4.4-star rating based on 12 reviews, Residence Venus in El Kef, Tunisia, is a highly-rated hotel. It is located at 5PJ5+VWH, Rue de la source, and its main category is Hotel.
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3039,12 +3896,50 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great place to eat, check out Le Petit Bateau located at 5PH9+XJV El Kef. This top-rated restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-21:30. To get there, use these GPS coordinates: 33.5941716, -7.6109608. For more details, visit their website at https://www.google.com/maps/place/Le+Petit+Bateau/data=!4m7!3m6!1s0x12fba446e850805b:0x877124d4d250a78b!8m2!3d36.1799813!4d8.7190371!16s%2Fg%2F11cp77z79f!19sChIJW4BQ6Eak-xIRi6dQ0tQkcYc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 743 379.</t>
+          <t>Le Petit Bateau is a restaurant located in el kef, Tunisia. It offers a wide range of dishes at affordable prices. The restaurant is open from 11:00 to 21:30 and is closed on Sundays. It has a rating of 4.5 out of 5 on Google Maps and has received 67 reviews. The coordinates of the restaurant are (33.5941716, -7.6109608).</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant in El Kef with a diverse menu and a perfect location for food enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historical El Kasba museum to learn about the region's rich history and culture.
+Mid-Morning: Visit La Una, a highly-rated pizzeria, and savor their delectable pizzas.
+Midday: Head to Dar Alyssa for a pleasant dining experience and enjoy delicious breakfast dishes.
+Afternoon: Check in to the comfortable Residence Venus hotel and relax for the afternoon.
+Evening: Take a guided tour of the Cafe ALA EDDINE, known for its friendly staff and relaxed atmosphere.
+Night: Enjoy a scenic evening at a local park or beach, taking in the beauty of El Kef's natural surroundings.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe ALA EDDINE** is a cafe located in el kef, Tunisia with a rating of 4.2 out of 5 based on 9 reviews. It offers a wide range of food and drinks, and is open 24 hours a day. The cafe is also known for its friendly staff and relaxed atmosphere.
+Dar Alyssa is a highly-rated restaurant located in Dar Alyssa, El Kef (36.1697539, 8.7044707). With 50 reviews and a 4.5-star rating, Dar Alyssa offers a pleasant dining experience with its cozy atmosphere. The restaurant serves breakfast and has a variety of dishes to choose from, making it a great place to start your day or enjoy a meal.
+The Residence Venus is a 4.4-rated hotel located in el kef. Situated at 5PJ5+VWH Residence Venus, Rue de la source, this hotel offers a range of amenities to its guests. With its convenient location and commitment to providing a comfortable stay, the Residence Venus is an ideal choice for travelers seeking a restful and enjoyable experience.
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3146,12 +4041,50 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great restaurant, check out Dar Alyssa. Located at 5PH4+XF9 Dar Alyssa, El Kef, this top-rated destination is perfect for restaurant enthusiasts and offers a range of restaurant options to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.1697539, 8.7044707. They're open during these hours: nan, but closed on []. For more details, call them at 97 926 051.</t>
+          <t>Dar Alyssa is a highly-rated restaurant located in Dar Alyssa, El Kef (36.1697539, 8.7044707). With 50 reviews and a 4.5-star rating, Dar Alyssa offers a pleasant dining experience with its cozy atmosphere. The restaurant serves breakfast and has a variety of dishes to choose from, making it a great place to start your day or enjoy a meal.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated restaurant in El Kef, offering a variety of dining options and conveniently located for easy access?</t>
+          <t>Day Plan:
+Morning: Exploring El Kef's historical heritage at El Kasba
+Mid-Morning: Trying local cuisine at Restaurent for a delightful dining experience
+Midday: Visiting Residence Venus for a comfortable and restful stay
+Afternoon: Enjoying the scenic views at the nearby park
+Evening: Participating in a guided tour of the famous Cafe ALA EDDINE
+Night: Relaxing with a traditional massage at a local spa</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ALA EDDINE is a highly rated cafe located in El Kef, Tunisia. Open 24 hours a day, it has garnered positive reviews for its offerings. The cafe's exact location is at (32.75041, -86.75026).
+Restaurent is a restaurant located at 5M4W+JF9, El Kef, at coordiantes (36.1697539, 8.7044707). It offers a delightful dining experience with a 5-star rating from 1 review. Service hours are from 7 AM to 11 PM, providing ample time to enjoy its offerings.
+The Residence Venus is a 4.4-rated hotel located in el kef. Situated at 5PJ5+VWH Residence Venus, Rue de la source, this hotel offers a range of amenities to its guests. With its convenient location and commitment to providing a comfortable stay, the Residence Venus is an ideal choice for travelers seeking a restful and enjoyable experience.
+El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3257,14 +4190,50 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great cafe, check out Cafe Frigua located at 5PJF+HH6 Cafe Frigua. 
-This top-rated cafe is perfect for cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot for cafe enthusiasts. It's open during these hours: 06:00-01:00, but closed on []. To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, visit their website at  or call them at 36 363 232.</t>
+          <t>Cafe Frigua, located in El Kef (Tunisia), is a popular cafe offering a cozy and inviting atmosphere. With a 4.1-star rating based on 27 reviews, it is a great spot to relax and enjoy a cup of coffee or tea. Cafe Frigua offers a range of beverages and snacks to satisfy your cravings. Situated at the coordinates 36.1697539, 8.7044707, it is easily accessible and welcomes customers from 6 am to 1 am daily.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in el kef, offering a diverse selection of cafe options?</t>
+          <t>Day Plan:
+Morning: Explore El Kasba, a museum offering insights into local history and culture.
+Mid-Morning: Visit Dar Alyssa, a family-owned restaurant known for its delicious traditional Tunisian dishes.
+Midday: Take a guided tour of the archaeological site located near El Kasba.
+Afternoon: Relax with a cup of coffee at Café Cesar, a local favorite with a warm ambiance.
+Evening: Enjoy a delectable pizza at La Una, a highly-rated pizzeria.
+Night: Engage in a traditional Tunisian cooking class at Dar Alyssa, getting hands-on experience with local flavors.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Cesar in El Kef, Tunisia, offers a welcoming atmosphere with its 4.1-star rating based on 8 reviews. Operating from 7:00 AM to 11:00 PM, Café Cesar serves as a great place to relax and enjoy a cup of coffee within its cafe ambiance. Situated at coordinates (36.1697539, 8.7044707), Café Cesar is a beloved spot for locals and visitors alike.
+Dar Alyssa is a family-owned restaurant located in the heart of El Kef, Tunisia, at the coordinates (36.1697539, 8.7044707). It has been a local favorite for years and offers a wide variety of traditional Tunisian dishes as well as some international favorites. The restaurant is known for its delicious food, friendly service, and cozy atmosphere. Many customers rave about the restaurant delicious breakfasts and the comfortable rooms.
+Residence Venus is a 4.4-rated hotel, located in El Kef, Tunisia. It offers 12 reviews, with "prix" or 'cost' as a commonly mentioned keyword in them.
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3370,14 +4339,53 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out La Una located at Av. Taieb Mhiri, El Kef 7100. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.5, it's a must-visit spot. For more details, visit their website at https://launa.business.site/%3Futm_source%3Dgmb%26utm_medium%3Dreferral or call them at 22 511 678.</t>
+          <t>La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>What is the top-rated pizzeria destination with a 4.5 rating located at Av. Taieb Mhiri in El Kef, perfect for Pizzeria enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historical El Kasba museum to delve into the rich cultural heritage of El Kef.
+Mid-Morning: Try local cuisine at Dar Alyssa, a renowned restaurant known for its delectable meals and cozy ambiance.
+Midday: Visit Cafe ALA EDDINE, a popular 24-hour cafe serving authentic Tunisian dishes and international fare, for a casual and enjoyable dining experience.
+Afternoon: Take a guided tour of the Residence Venus hotel, a highly-rated accommodation that offers comfortable lodgings and convenient access to the city's attractions.
+Evening: Enjoy scenic views at the picturesque location of La Una pizzeria, while savoring their highly-rated pizzas.
+Night: Relax and unwind at the hotel or consider a leisurely stroll through El Kef's charming streets, soaking up the evening atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ALA EDDINE, a cafe located in El Kef, Tunisia, is a popular destination for locals and tourists alike. Open 24 hours a day, it offers a wide variety of food and drinks, including traditional Tunisian dishes and international fare. The cafe is also known for its friendly staff and relaxed atmosphere, making it a great place to enjoy a meal or spend time with friends.
+Dar Alyssa is a renowned restaurant located in El Kef, Tunisia. Boasting a rating of 4.4 out of 5 with 56 customer reviews, it is a popular destination for locals and tourists alike. The restaurant offers a variety of dining options, from cozy breakfasts to delightful meals for the entire family. Its prime location at 36.1697539 latitude and 8.7044707 longitude provides easy access for visitors. With its central location in the city, the restaurant is within walking distance of numerous attractions and accommodations.
+"Residence Venus," located in El Kef (Tunisia), is a 4.4-rated hotel offering accommodations. Visitors can easily access the establishment via the provided address or coordinates. With 12 reviews available, the hotel's prominent features include:
+- Hotel category with high ratings (4.4/5)
+- Convenient location in El Kef
+- Contact information (phone number) for inquiries
+El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3479,12 +4487,50 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in El Kef and looking for something fun to do, check out Fast (mlfwf , shbty, crepes) located at 5M6X+X95. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, visit their website at https://www.google.com/maps/place/Fast+%28%D9%85%D9%84%D9%81%D9%88%D9%81+%D8%8C+%D8%B4%D8%A8%D8%A7%D8%AA%D9%8A%D8%8C+cr%C3%AApes%29%E2%80%AD/data=!4m7!3m6!1s0x12fba5647868eec3:0x413c8d7424108db2!8m2!3d36.1623831!4d8.6984965!16s%2Fg%2F11j7vqrzmw!19sChIJw-5oeGSl-xIRso0QJHSNPEE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Fast (mlfwf , shbty, crepes) is a restaurant located in El Kef, at 36.1697539 latitude and 8.7044707 longitude. The restaurant is open 24 hours a day and is popular for its delicious crepes. It has a rating of 4.8 out of 10 based on 10 reviews, and also features a website and a phone number for reservations and inquiries.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where in El Kef can you find a highly-rated restaurant hotspot (Restaurant lovers, rating 4.8) serving a variety of dishes and open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Visiting historical El Kasba to learn about the region's past.
+Mid-Morning: Exploring the family-friendly Dar Alyssa Restaurant for a delightful Tunisian breakfast.
+Midday: Enjoying the scenic views at La Rosa Cafe.
+Afternoon: Shopping for local crafts and souvenirs at the souks (markets).
+Evening: Participating in a guided tour of Residence Venus hotel to see luxurious accommodations.
+Night: Trying local cuisine at the highly-rated La Una pizzeria for dinner and ambiance.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+La Rosa Cafe is a cafe located in El Kef, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and other snacks. The cafe is located at 30.7550394, -92.0073482.
+Dar Alyssa is a family-owned restaurant located in the heart of El Kef, Tunisia, at the coordinates (36.1697539, 8.7044707). It has been a local favorite for years and offers a wide variety of traditional Tunisian dishes as well as some international favorites. The restaurant is known for its delicious food, friendly service, and cozy atmosphere. Many customers rave about the restaurant delicious breakfasts and the comfortable rooms.
+The Residence Venus is a 4.4-rated hotel located in el kef. Situated at 5PJ5+VWH Residence Venus, Rue de la source, this hotel offers a range of amenities to its guests. With its convenient location and commitment to providing a comfortable stay, the Residence Venus is an ideal choice for travelers seeking a restful and enjoyable experience.
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3590,12 +4636,50 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great meal, check out Restaurant LEKLIL Fawzi located at Gare Regionale Routiere. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 08:00-19:00, but closed on []. To get there, use these GPS coordinates: 36.1697539, 8.7044707. For more details, visit their website at  or call them at 97 964 547.</t>
+          <t>Restaurant LEKLIL Fawzi is located in El Kef, Tunisia, at the bus station. It is highly rated with 4.7 stars out of 5, based on 3 reviews. The restaurant is open from 8 AM to 7 PM and offers a variety of dishes. You can find the restaurant on Google Maps using the following link: https://goo.gl/maps/Yf6Fb6m1A9x92V2W9.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where in el kef can you find the highly-rated Restaurant LEKLIL Fawzi, offering a delectable dining experience with top-notch ratings?</t>
+          <t>Day Plan:
+Morning: Explore El Kasba, the renowned museum that showcases the rich history and cultural heritage of El Kef.
+Mid-Morning: Visit Café Frigua, a cozy and popular spot to relax, savor a cup of coffee or tea, and soak up the local atmosphere.
+Midday: Indulge in a delightful culinary experience at Dar Alyssa, a beloved family-owned restaurant that serves authentic Tunisian dishes and international favorites in a cozy setting.
+Afternoon: Take a guided tour of Residence Venus, a highly-rated 4.4-star hotel known for its comfortable accommodations and warm hospitality.
+Evening: Head to La Una, a 4.5-star-rated pizzeria renowned for its delectable pizzas. Enjoy a satisfying dinner while appreciating the vibrant local culinary scene.
+Night: Stroll through the charming streets of El Kef, savoring the sights and sounds of the city's nightlife.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Frigua is a popular spot in El Kef, Tunisia, known for its cozy atmosphere and refreshing beverages. Located at 5PJF+HH6, it's a great place to relax and enjoy a cup of coffee or tea. The cafe is open from 6:00 am to 1:00 am daily, making it convenient for both early risers and late-night enthusiasts.
+Dar Alyssa is a family-owned restaurant located in the heart of El Kef, Tunisia, at the coordinates (36.1697539, 8.7044707). It has been a local favorite for years and offers a wide variety of traditional Tunisian dishes as well as some international favorites. The restaurant is known for its delicious food, friendly service, and cozy atmosphere. Many customers rave about the restaurant delicious breakfasts and the comfortable rooms.
+Residence Venus is a 4.4-rated hotel, located in El Kef, Tunisia. It offers 12 reviews, with "prix" or 'cost' as a commonly mentioned keyword in them.
+El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3697,12 +4781,53 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for something fun to do, check out Restaurent located at 5M4W+JF9 Restaurent, El Kef. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.1697539, 8.7044707.</t>
+          <t>Restaurent is a restaurant located at 5M4W+JF9, El Kef, at coordiantes (36.1697539, 8.7044707). It offers a delightful dining experience with a 5-star rating from 1 review. Service hours are from 7 AM to 11 PM, providing ample time to enjoy its offerings.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant destination with a varied selection of categories in El Kef?</t>
+          <t>Day Plan:
+Morning: Exploring El Kasba
+Mid-Morning: Trying local cuisine at Fast
+Midday: Visiting Residence Venus
+Afternoon: Relaxing with a traditional hammam experience at a local spa
+Evening: Enjoying scenic views at the historic ruins of the city walls
+Night: Having dinner at La Una and experiencing the vibrant nightlife of El Kef</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Chez Mouldi, a cafe located in the heart of El Kef, offers a warm and inviting atmosphere to enjoy a delicious cup of coffee or tea. Open from 5 am to 10 pm, it is the perfect spot to start your day or relax in the evening. With a 5-star rating and positive reviews, Chez Mouldi is a must-visit for anyone looking for a great cafe experience in El Kef.
+Fast (mlfwf , shbty, crepes) is a restaurant located in El Kef, at 36.1697539 latitude and 8.7044707 longitude. The restaurant is open 24 hours a day and is popular for its delicious crepes. It has a rating of 4.8 out of 10 based on 10 reviews, and also features a website and a phone number for reservations and inquiries.
+"Residence Venus," located in El Kef (Tunisia), is a 4.4-rated hotel offering accommodations. Visitors can easily access the establishment via the provided address or coordinates. With 12 reviews available, the hotel's prominent features include:
+- Hotel category with high ratings (4.4/5)
+- Convenient location in El Kef
+- Contact information (phone number) for inquiries
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3804,12 +4929,50 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in el kef and craving some caffeine, head to Cafe java located at 5P93+M9Q Cafe java, Av. Mongi Slim. This must-visit cafe, rated an impressive 5.0, is adored by cafe lovers. With a warm and inviting atmosphere, it's open from 06:00-23:00 to satisfy your coffee needs. Use the GPS coordinates (36.174411586475, 8.70682810871) for easy navigation. For more details, visit their website or call them at the provided number.</t>
+          <t>**Cafe java** is a cozy cafe located at 5P93+M9Q Cafe java, Av. Mongi Slim, El Kef. It offers a warm and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee. The cafe is open from 6:00 AM to 11:00 PM.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe with a welcoming ambiance in El Kef that serves refreshments from early morning until late at night?</t>
+          <t>Day Plan:
+Morning: Exploring El Kasba museum to delve into the rich history and traditions of El Kef.
+Mid-Morning: Trying local cuisine at Dar Alyssa restaurant, savoring a delightful breakfast or meal amidst its cozy atmosphere.
+Midday: Relaxing with a coffee and pastry at Cafe java, enjoying its delightful ambiance and satisfying cravings.
+Afternoon: Taking a guided tour of the Discover "Cafe java" to learn about its unique features and history.
+Evening: Enjoying scenic views at Residence Venus, capturing the beauty of El Kef from its convenient location.
+Night: Experiencing cultural immersion at La Una pizzeria, indulging in delectable pizzas and immersing in the local ambiance.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover "Cafe java", a highly-rated cafe located in El Kef (36.174411586475, 8.70682810871). This cozy establishment offers a delightful ambiance for your coffee and pastry cravings.
+Dar Alyssa is a highly-rated restaurant located in Dar Alyssa, El Kef (36.1697539, 8.7044707). With 50 reviews and a 4.5-star rating, Dar Alyssa offers a pleasant dining experience with its cozy atmosphere. The restaurant serves breakfast and has a variety of dishes to choose from, making it a great place to start your day or enjoy a meal.
+The Residence Venus is a 4.4-rated hotel (out of 5) located at the address 5PJ5+VWH Residence Venus, Rue de la source, El Kef. It offers a convenient location for travelers and has received positive reviews for its value for money. The hotel has 12 reviews, with customers praising its cleanliness and friendly staff.
+El Kasba is a renowned museum located in El Kef, Tunisia. It is recognized for its collection of historical artifacts and cultural displays that provide insights into the rich history and traditions of the region. Positioned at the coordinates (36.180510116134, 8.711688656034), the museum welcomes visitors to delve into the cultural heritage of El Kef.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3911,12 +5074,50 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in el kef and looking for a great cafe, check out La Rosa Cafe located at 5P82+422 La Rosa Cafe. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 30.7550394, -92.0073482.</t>
+          <t>La Rosa Cafe, a highly-rated cafe in el kef, offers a cozy ambiance for patrons to enjoy their exquisite coffee and culinary delights. Located at 5P82+422 (36.1652721, 8.7000269), the cafe is open daily from 6 AM to midnight, welcoming customers with its inviting aroma and warm atmosphere.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where in el kef can you find a highly-rated destination for cafe lovers called La Rosa Cafe, known for its diverse menu and exceptional ratings?</t>
+          <t>Day Plan:
+Morning: Exploring Le Petit Bateau
+Mid-Morning: Trying local cuisine at Le Petit Bateau
+Midday: Visiting El Kasba
+Afternoon: Shopping at local markets
+Evening: Relaxing at Residence Venus
+Night: Enjoying scenic views at Cafe Java</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe java** is a cozy cafe located at 5P93+M9Q Cafe java, Av. Mongi Slim, El Kef. It offers a warm and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee. The cafe is open from 6:00 AM to 11:00 PM.
+Le Petit Bateau is a restaurant located in el kef, Tunisia. It offers a wide range of dishes at affordable prices. The restaurant is open from 11:00 to 21:30 and is closed on Sundays. It has a rating of 4.5 out of 5 on Google Maps and has received 67 reviews. The coordinates of the restaurant are (33.5941716, -7.6109608).
+With a 4.4-star rating based on 12 reviews, Residence Venus in El Kef, Tunisia, is a highly-rated hotel. It is located at 5PJ5+VWH, Rue de la source, and its main category is Hotel.
+El Kasba is a museum located in the city of El Kef, Tunisia. It offers a glimpse into the history and culture of the region, with exhibits on topics such as traditional crafts, local customs, and the local archaeological site. The museum is located at 36.180510116134, 8.711688656034.
+La Una, a renowned pizzeria, situated conveniently in El Kef at the address Av. Taieb Mhiri, boasts an impressive rating of 4.5 stars. With its prime location, La Una serves delectable pizzas that have garnered much appreciation, as evidenced by its numerous positive reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
